--- a/Dane/Klasy/3c.xlsx
+++ b/Dane/Klasy/3c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\Klasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9412A25-3ACB-405A-95BE-C149C273BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC4093E-AC03-4884-8CAA-2FDEE77A893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
@@ -83,24 +83,12 @@
     <t xml:space="preserve">44, 16, 18, 48, 19, 43, 19, 31, 40, 42, 32, 24, 45 </t>
   </si>
   <si>
-    <t xml:space="preserve">40, 43, 10, 23, 29, 39, 45, 19,  </t>
-  </si>
-  <si>
     <t>32, 12, 25, 13, 37, 36, 24, 17</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 43, 26, 24, 44, 31, 19, 20, 29, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20, 26, 23, 39, </t>
-  </si>
-  <si>
     <t>39, 37, 38, 13</t>
   </si>
   <si>
-    <t>17, 18, 48, 31,</t>
-  </si>
-  <si>
     <t>Biłogras Jolanta, Gazda Beata</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>Gajda Bożena, Gołojuch Małgorzata, Mazurkiewicz Wiesław</t>
+  </si>
+  <si>
+    <t>40, 43, 10, 23, 29, 39, 45, 19</t>
+  </si>
+  <si>
+    <t>9, 43, 26, 24, 44, 31, 19, 20, 29</t>
+  </si>
+  <si>
+    <t>17, 18, 48, 31</t>
+  </si>
+  <si>
+    <t>20, 26, 23, 39</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1059,12 +1059,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1113,12 +1113,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1129,18 +1129,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1151,35 +1151,35 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1202,32 +1202,32 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>31</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
